--- a/Program_Summary.xlsx
+++ b/Program_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuel/Desktop/LOO/Grad_Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DF988-DE8E-E944-BF4D-84C39A67E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48CF49-4048-074D-A129-517908E07637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="740" windowWidth="14720" windowHeight="18900" activeTab="1" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
+    <workbookView xWindow="160" yWindow="9360" windowWidth="29920" windowHeight="8300" activeTab="1" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canada!$A$1:$I$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">US!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">US!$A$1:$K$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
   <si>
     <t>U of T</t>
   </si>
@@ -407,9 +406,6 @@
     <t>MSML</t>
   </si>
   <si>
-    <t>MSE</t>
-  </si>
-  <si>
     <t>MSIN</t>
   </si>
   <si>
@@ -417,6 +413,49 @@
   </si>
   <si>
     <t>CMU/CMU-SV</t>
+  </si>
+  <si>
+    <t>MSECE</t>
+  </si>
+  <si>
+    <t>UCSD</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Nov 19/Dec 10, 2025</t>
+  </si>
+  <si>
+    <t>Strongly Recom</t>
+  </si>
+  <si>
+    <t>https://cs.cmu.edu/academics/masters/resources/scs-masters-programs-data.xlsx</t>
+  </si>
+  <si>
+    <t>SESV</t>
+  </si>
+  <si>
+    <t>https://www.ece.cmu.edu/admissions/index.html</t>
+  </si>
+  <si>
+    <t>https://siebelschool.illinois.edu/academics/graduate/professional-mcs</t>
+  </si>
+  <si>
+    <t>https://siebelschool.illinois.edu/admissions/graduate/applications-process-requirements</t>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/programs/school-of-engineering-and-applied-science/computer-science/
+https://grad.ucla.edu/admissions/research-requirements/#Criteria</t>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/programs/school-of-engineering-and-applied-science/electrical-computer-engineering/https://grad.ucla.edu/admissions/research-requirements/#Criteria</t>
+  </si>
+  <si>
+    <t>https://cse.ucsd.edu/graduate/admissions</t>
+  </si>
+  <si>
+    <t>75(CS)/76(CE)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +463,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -484,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,10 +536,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -824,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE62A393-52B2-BF45-96CB-7720F049400F}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1608,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79B7E2-F5AB-074B-8978-53C18DCD04B8}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G27" sqref="F25:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,16 +1659,17 @@
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1646,22 +1686,25 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -1677,23 +1720,26 @@
       <c r="E2" s="2">
         <v>45993</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1709,23 +1755,26 @@
       <c r="E3" s="2">
         <v>45993</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1741,23 +1790,26 @@
       <c r="E4" s="2">
         <v>45993</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -1773,23 +1825,26 @@
       <c r="E5" s="2">
         <v>45993</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -1805,20 +1860,23 @@
       <c r="E6" s="2">
         <v>45663</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1834,23 +1892,26 @@
       <c r="E7" s="2">
         <v>46000</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -1866,20 +1927,23 @@
       <c r="E8" s="2">
         <v>46000</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -1889,9 +1953,20 @@
       <c r="C9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -1901,8 +1976,11 @@
       <c r="C10" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -1910,10 +1988,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -1921,32 +2002,50 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="E14" s="2">
+        <v>46006</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -1956,8 +2055,20 @@
       <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>46006</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -1967,63 +2078,134 @@
       <c r="C16" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>46037</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2">
+        <v>46006</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2">
+        <v>46006</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2">
+        <v>46008</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J7" xr:uid="{FE79B7E2-F5AB-074B-8978-53C18DCD04B8}"/>
+  <autoFilter ref="A1:K7" xr:uid="{FE79B7E2-F5AB-074B-8978-53C18DCD04B8}"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://ee.stanford.edu/admissions/ms" xr:uid="{BB503E17-0B8F-0C4C-9410-5BD5E1BE7E7E}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{73068600-B537-B44F-B388-9A0EDFE82571}"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://ee.stanford.edu/admissions/ms" xr:uid="{BB503E17-0B8F-0C4C-9410-5BD5E1BE7E7E}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{73068600-B537-B44F-B388-9A0EDFE82571}"/>
+    <hyperlink ref="I17" r:id="rId3" display="https://grad.ucla.edu/programs/school-of-engineering-and-applied-science/computer-science/" xr:uid="{D0D905A7-3D0F-D544-9875-FDBADE87F7C4}"/>
+    <hyperlink ref="I18" r:id="rId4" location="Criteria" xr:uid="{8A673FC2-D2C2-134A-893F-8E7D30F00125}"/>
+    <hyperlink ref="I19" r:id="rId5" xr:uid="{016B609E-BCDF-5440-B8D9-DB6208BE395D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Program_Summary.xlsx
+++ b/Program_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuel/Desktop/LOO/Grad_Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hujitao/Desktop/master/26Fall-US-Canada-Grad-Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48CF49-4048-074D-A129-517908E07637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C51667-4E5E-E241-81B1-7C78B9E6D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="9360" windowWidth="29920" windowHeight="8300" activeTab="1" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="152">
   <si>
     <t>U of T</t>
   </si>
@@ -456,6 +456,64 @@
   </si>
   <si>
     <t>75(CS)/76(CE)</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>Y for undergrad outside US</t>
+  </si>
+  <si>
+    <t>https://cse.engin.umich.edu/academics/graduate/admissions/</t>
+  </si>
+  <si>
+    <t>https://ece.engin.umich.edu/academics/graduate-programs/prospective-grad-students/apply-for-grad/apply-for-meng/</t>
+  </si>
+  <si>
+    <t>GATech</t>
+  </si>
+  <si>
+    <t>MSCSE</t>
+  </si>
+  <si>
+    <t>MS Cybersecurity</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>MS ECE</t>
+  </si>
+  <si>
+    <t>Upenn</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>System Engineering</t>
+  </si>
+  <si>
+    <t>Robtics</t>
+  </si>
+  <si>
+    <t>CITMSE</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/ms-computer-science-admission-requirements</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/degree-programs/ms-computational-science-and-engineering</t>
+  </si>
+  <si>
+    <t>https://gradadm.seas.upenn.edu/faqs/do-i-need-to-take-the-gre/
+https://gradadm.seas.upenn.edu/masters/</t>
+  </si>
+  <si>
+    <t>https://www.ece.utexas.edu/academics/graduate/admissions</t>
   </si>
 </sst>
 </file>
@@ -518,7 +576,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -545,6 +603,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -565,9 +626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,7 +666,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -711,7 +772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79B7E2-F5AB-074B-8978-53C18DCD04B8}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G27" sqref="F25:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,48 +2212,186 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="9">
+        <v>46037</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="9">
+        <v>45672</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>105</v>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>108</v>
+      <c r="C31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2204,6 +2403,10 @@
     <hyperlink ref="I17" r:id="rId3" display="https://grad.ucla.edu/programs/school-of-engineering-and-applied-science/computer-science/" xr:uid="{D0D905A7-3D0F-D544-9875-FDBADE87F7C4}"/>
     <hyperlink ref="I18" r:id="rId4" location="Criteria" xr:uid="{8A673FC2-D2C2-134A-893F-8E7D30F00125}"/>
     <hyperlink ref="I19" r:id="rId5" xr:uid="{016B609E-BCDF-5440-B8D9-DB6208BE395D}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{1CD54E77-7A83-4142-B124-3FFAD94AD195}"/>
+    <hyperlink ref="I21" r:id="rId7" xr:uid="{66982222-780D-CF40-8550-3249EBF7DA4C}"/>
+    <hyperlink ref="I23" r:id="rId8" xr:uid="{7731BD09-E158-7A47-9D8D-0D42386D4CE7}"/>
+    <hyperlink ref="I25" r:id="rId9" xr:uid="{17422755-64E4-1242-93AB-0E09A1734404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Program_Summary.xlsx
+++ b/Program_Summary.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hujitao/Desktop/master/26Fall-US-Canada-Grad-Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C51667-4E5E-E241-81B1-7C78B9E6D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EA58E-0999-3D4A-AA0F-F2129420A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{1693F520-B3D1-D645-ADA2-78F3A0A704D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
     <sheet name="US" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canada!$A$1:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canada!$A$1:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">US!$A$1:$K$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="158">
   <si>
     <t>U of T</t>
   </si>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>12 months</t>
-  </si>
-  <si>
-    <t>https://www.ece.utoronto.ca/graduates/degree-programs/
-https://www.ece.utoronto.ca/graduates/degree-programs/meng/options/</t>
   </si>
   <si>
     <t>https://web.cs.toronto.edu/graduate/msc
@@ -514,6 +510,32 @@
   </si>
   <si>
     <t>https://www.ece.utexas.edu/academics/graduate/admissions</t>
+  </si>
+  <si>
+    <t>Feb 4th 2026</t>
+  </si>
+  <si>
+    <t>https://gradstudies.engineering.utoronto.ca/master-of-engineering-meng/meng-co-op-program/#deadline</t>
+  </si>
+  <si>
+    <t>roling basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ece.utoronto.ca/graduates/degree-programs/
+https://www.ece.utoronto.ca/graduates/ </t>
+  </si>
+  <si>
+    <t>Domestic: May 31, 2026
+International:
+April 15, 2026</t>
+  </si>
+  <si>
+    <t>https://www.ece.utoronto.ca/graduates/degree-programs/
+https://www.ece.utoronto.ca/graduates/degree-programs/meng/options/
+https://www.ece.utoronto.ca/graduates/</t>
+  </si>
+  <si>
+    <t>Meng Coop</t>
   </si>
 </sst>
 </file>
@@ -922,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE62A393-52B2-BF45-96CB-7720F049400F}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -989,8 +1011,8 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
+      <c r="E2" s="2">
+        <v>45992</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -999,10 +1021,10 @@
         <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -1023,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1032,10 +1054,10 @@
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
@@ -1055,8 +1077,8 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
+      <c r="E4" s="2">
+        <v>45992</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -1085,23 +1107,23 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="6">
+        <v>46030</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -1119,26 +1141,26 @@
         <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,55 +1168,55 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45992</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1206,10 +1228,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <v>45992</v>
@@ -1224,25 +1246,25 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1251,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1266,10 +1288,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6">
         <v>46054</v>
@@ -1281,10 +1303,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -1296,55 +1318,55 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6">
         <v>46054</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7">
-        <v>46006</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="6">
+        <v>46054</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -1356,10 +1378,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7">
         <v>46006</v>
@@ -1368,31 +1390,31 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6">
-        <v>46037</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="7">
+        <v>46006</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1400,15 +1422,15 @@
       <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1416,10 +1438,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="6">
         <v>46037</v>
@@ -1431,14 +1453,14 @@
         <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,55 +1468,55 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="6">
-        <v>45991</v>
+        <v>46037</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45991</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -1506,25 +1528,25 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>46006</v>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -1536,25 +1558,25 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6">
+        <v>46006</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="6">
-        <v>46068</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -1563,16 +1585,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E21" s="6">
-        <v>46006</v>
+        <v>46068</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1581,10 +1603,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -1596,16 +1618,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="6">
         <v>46006</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>19</v>
@@ -1614,10 +1636,11 @@
         <v>71</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1625,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6">
         <v>46006</v>
@@ -1639,14 +1662,14 @@
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,53 +1677,83 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" s="6">
         <v>46006</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>74</v>
+      <c r="J24" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6">
+        <v>46006</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J17" xr:uid="{EE62A393-52B2-BF45-96CB-7720F049400F}"/>
+  <autoFilter ref="A1:J18" xr:uid="{EE62A393-52B2-BF45-96CB-7720F049400F}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://web.cs.toronto.edu/graduate/msc" xr:uid="{198D0A49-0691-E246-BF62-DC118DC12875}"/>
     <hyperlink ref="H3" r:id="rId2" display="https://web.cs.toronto.edu/graduate/phd" xr:uid="{3DBCAE57-9E46-664E-B713-6D7E403D9A82}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{5020D22D-6D3B-014A-BEA6-E0A5DB23CB4F}"/>
-    <hyperlink ref="H7" r:id="rId4" display="https://www.ece.utoronto.ca/graduates/degree-programs/" xr:uid="{6A86195B-E0E1-594C-B290-BDD21FF76343}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{5457B5CC-7306-FC4F-9C94-6234FAC55EA8}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{7BFFE65E-487E-CD45-8A38-DC2537871EBA}"/>
+    <hyperlink ref="H8" r:id="rId4" display="https://www.ece.utoronto.ca/graduates/degree-programs/" xr:uid="{6A86195B-E0E1-594C-B290-BDD21FF76343}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{5457B5CC-7306-FC4F-9C94-6234FAC55EA8}"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://www.ece.utoronto.ca/graduates/degree-programs/ " xr:uid="{7BFFE65E-487E-CD45-8A38-DC2537871EBA}"/>
     <hyperlink ref="H6" r:id="rId7" xr:uid="{F543BFFC-A0F5-C64D-B849-0A889FD17509}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{7286FD40-F279-704B-BBE6-6F84DA113198}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{A28A4390-06C3-9D4C-9674-098206096666}"/>
-    <hyperlink ref="H9" r:id="rId10" xr:uid="{4903E960-4807-8342-A3F4-460C2C0558B4}"/>
-    <hyperlink ref="H8" r:id="rId11" xr:uid="{2B3AC083-7C7A-C348-80A8-52F1D7EF10BB}"/>
-    <hyperlink ref="H15" r:id="rId12" xr:uid="{23E32652-01F0-E84E-8EA4-6333D0A7ED68}"/>
-    <hyperlink ref="H17" r:id="rId13" display="https://coop.apsc.ubc.ca" xr:uid="{0507551A-9587-2940-B00C-22C568DD5C1A}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{1112BF59-8634-F54B-A345-864BE3BA1171}"/>
-    <hyperlink ref="H18" r:id="rId15" xr:uid="{435FD0CA-A13E-FB49-9871-C278867AE7E0}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{9728DD2C-A55C-284F-80D7-369002343E91}"/>
-    <hyperlink ref="J18" r:id="rId17" display="https://future.mcgill.ca/apply/" xr:uid="{1777F567-0A0F-1841-B951-4DE824FD75B9}"/>
-    <hyperlink ref="J20" r:id="rId18" display="https://future.mcgill.ca/apply/" xr:uid="{5A8F215D-68A7-2F48-97FE-28903C27B535}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{447CC068-1944-0C4E-89DB-FA91E60B70BA}"/>
-    <hyperlink ref="H22" r:id="rId20" xr:uid="{8D36BA1A-C923-284A-A94F-669C8E36B000}"/>
-    <hyperlink ref="H21" r:id="rId21" xr:uid="{47A2BDB1-121D-9D48-8937-492FAA9F6C27}"/>
-    <hyperlink ref="J19" r:id="rId22" display="https://future.mcgill.ca/apply/" xr:uid="{3643B77F-DE8C-3A49-A94A-39ED29D44163}"/>
-    <hyperlink ref="J24" r:id="rId23" xr:uid="{AC8701D9-BD86-9147-BAE2-D6FA464B19E8}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{7286FD40-F279-704B-BBE6-6F84DA113198}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{A28A4390-06C3-9D4C-9674-098206096666}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{4903E960-4807-8342-A3F4-460C2C0558B4}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{2B3AC083-7C7A-C348-80A8-52F1D7EF10BB}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{23E32652-01F0-E84E-8EA4-6333D0A7ED68}"/>
+    <hyperlink ref="H18" r:id="rId13" display="https://coop.apsc.ubc.ca" xr:uid="{0507551A-9587-2940-B00C-22C568DD5C1A}"/>
+    <hyperlink ref="H17" r:id="rId14" xr:uid="{1112BF59-8634-F54B-A345-864BE3BA1171}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{435FD0CA-A13E-FB49-9871-C278867AE7E0}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{9728DD2C-A55C-284F-80D7-369002343E91}"/>
+    <hyperlink ref="J19" r:id="rId17" display="https://future.mcgill.ca/apply/" xr:uid="{1777F567-0A0F-1841-B951-4DE824FD75B9}"/>
+    <hyperlink ref="J21" r:id="rId18" display="https://future.mcgill.ca/apply/" xr:uid="{5A8F215D-68A7-2F48-97FE-28903C27B535}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{447CC068-1944-0C4E-89DB-FA91E60B70BA}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{8D36BA1A-C923-284A-A94F-669C8E36B000}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{47A2BDB1-121D-9D48-8937-492FAA9F6C27}"/>
+    <hyperlink ref="J20" r:id="rId22" display="https://future.mcgill.ca/apply/" xr:uid="{3643B77F-DE8C-3A49-A94A-39ED29D44163}"/>
+    <hyperlink ref="J25" r:id="rId23" xr:uid="{AC8701D9-BD86-9147-BAE2-D6FA464B19E8}"/>
+    <hyperlink ref="H7" r:id="rId24" location="deadline" xr:uid="{D0DF96A1-8AFD-864A-A8A9-1A0BAC63149B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1710,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79B7E2-F5AB-074B-8978-53C18DCD04B8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1756,10 +1809,10 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>21</v>
@@ -1767,16 +1820,16 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>45993</v>
@@ -1791,18 +1844,18 @@
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1811,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>45993</v>
@@ -1826,27 +1879,27 @@
         <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>45993</v>
@@ -1861,18 +1914,18 @@
         <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -1881,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>45993</v>
@@ -1896,27 +1949,27 @@
         <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>45663</v>
@@ -1931,24 +1984,24 @@
         <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>46000</v>
@@ -1963,27 +2016,27 @@
         <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>46000</v>
@@ -1998,100 +2051,100 @@
         <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>46006</v>
@@ -2103,18 +2156,18 @@
         <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2">
         <v>46006</v>
@@ -2126,18 +2179,18 @@
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="2">
         <v>46037</v>
@@ -2149,18 +2202,18 @@
         <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2">
         <v>46006</v>
@@ -2169,18 +2222,18 @@
         <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2">
         <v>46006</v>
@@ -2189,18 +2242,18 @@
         <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2">
         <v>46008</v>
@@ -2209,18 +2262,18 @@
         <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="9">
         <v>46037</v>
@@ -2229,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2243,62 +2296,62 @@
         <v>45672</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -2306,21 +2359,21 @@
     </row>
     <row r="27" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -2328,7 +2381,7 @@
     </row>
     <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -2336,7 +2389,7 @@
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -2344,7 +2397,7 @@
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -2352,47 +2405,47 @@
     </row>
     <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
